--- a/ironhack/code_clone/green_names.xlsx
+++ b/ironhack/code_clone/green_names.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15140" tabRatio="500"/>
+    <workbookView xWindow="540" yWindow="620" windowWidth="28160" windowHeight="15140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>ishwetasingh</t>
   </si>
   <si>
-    <t>jeffkeilman</t>
-  </si>
-  <si>
     <t>lheston</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>wluan</t>
+  </si>
+  <si>
+    <t>jeffkeilmann</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,82 +479,82 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
